--- a/dataset/company_size.xlsx
+++ b/dataset/company_size.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Неизвестно</t>
+          <t>Средний бизнес</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Средний бизнес</t>
+          <t>Крупный бизнес</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Крупный бизнес</t>
+          <t>Малый бизнес</t>
         </is>
       </c>
     </row>
@@ -475,16 +475,6 @@
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>Малый бизнес</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
         <is>
           <t>Микробизнес</t>
         </is>
